--- a/data/Map119.xlsx
+++ b/data/Map119.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>自動実行</t>
   </si>
@@ -23,7 +23,13 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>アーコイベ用</t>
@@ -734,7 +740,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,494 +748,500 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map119.xlsx
+++ b/data/Map119.xlsx
@@ -23,13 +23,13 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>アーコイベ用</t>

--- a/data/Map119.xlsx
+++ b/data/Map119.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>自動実行</t>
   </si>
@@ -38,10 +38,16 @@
     <t>ライム</t>
   </si>
   <si>
+    <t>Lime</t>
+  </si>
+  <si>
     <t>最初のイベント</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;やっぱりね！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;やっぱりね！</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;逃げる時間そんなにないよなー、って思ってたの。
@@ -49,7 +55,16 @@
 待ってたら来ると思ったよー！</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;逃げる時間そんなにないよなー、って思ってたの。
+どこかに隠れてたのかな？
+待ってたら来ると思ったよー！</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
+つーかまーえた♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;にへへへへー♥
 つーかまーえた♥</t>
   </si>
   <si>
@@ -80,7 +95,15 @@
     <t>\C[1]SAN値が1下がった・・・（現在SAN値\v[270]）</t>
   </si>
   <si>
+    <t>\C[1]Sanity decreased by 1... (Current Sanity: \v[270]）</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;もうー。ひょっとして全然抵抗する気ないのー？
+ゲームはまだ始まったばかりなのに。
+次は本気で搾っちゃうからねー？</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;もうー。ひょっとして全然抵抗する気ないのー？
 ゲームはまだ始まったばかりなのに。
 次は本気で搾っちゃうからねー？</t>
   </si>
@@ -740,7 +763,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,500 +771,551 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map119.xlsx
+++ b/data/Map119.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>自動実行</t>
   </si>
@@ -58,6 +58,9 @@
     <t>\n&lt;Lime&gt;逃げる時間そんなにないよなー、って思ってたの。
 どこかに隠れてたのかな？
 待ってたら来ると思ったよー！</t>
+  </si>
+  <si>
+    <t>ーーーーー基本変更点ーーーーー</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
@@ -763,7 +766,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,551 +774,793 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
